--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1342596.996996087</v>
+        <v>-1284735.980849059</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10375923.24897008</v>
+        <v>10365081.14787554</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>132.4104907062605</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.24685378396512</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>69.51021388119081</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.59866649482034</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>179.2231752222432</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>101.7571552268383</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1105,19 +1105,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>233.9605018034879</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1139,13 +1139,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.20350533122108</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1187,13 +1187,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>145.0890749208078</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>266.4072393609993</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1163579268526</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0564930766995</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1771,13 +1771,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,10 +3007,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3187,25 +3187,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D34" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F34" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H34" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432407</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934501</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762356</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006784</v>
       </c>
       <c r="V34" t="n">
         <v>267.8502427095265</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3439,10 +3439,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402849</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277812</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>141.4132446762347</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491.4546956867441</v>
+        <v>627.4284493879162</v>
       </c>
       <c r="C2" t="n">
-        <v>491.4546956867441</v>
+        <v>627.4284493879162</v>
       </c>
       <c r="D2" t="n">
-        <v>459.5853149015927</v>
+        <v>595.5590686027648</v>
       </c>
       <c r="E2" t="n">
-        <v>459.5853149015927</v>
+        <v>595.5590686027648</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>167.6916390119725</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.003613428182</v>
+        <v>1462.014143573171</v>
       </c>
       <c r="Y2" t="n">
-        <v>917.7542661716518</v>
+        <v>1053.728019872824</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.1653293437081</v>
+        <v>586.356509177378</v>
       </c>
       <c r="C4" t="n">
-        <v>122.603617826933</v>
+        <v>586.356509177378</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>586.356509177378</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>586.356509177378</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>409.6494551391343</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>244.0581801649619</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>104.1560058553364</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>1005.594798582257</v>
       </c>
       <c r="Y4" t="n">
-        <v>295.1653293437081</v>
+        <v>778.1751278963652</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1563.31341362677</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1125.170940810194</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>689.2611559846382</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>255.4864111429334</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>231.6593855925452</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1112.37576914967</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1738.870975579376</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1815.640912640694</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1815.640912640694</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1815.640912640694</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1815.640912640694</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2362.139698599289</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352346</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536183</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409221</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1968.352359726238</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1605.735409660065</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1604.920359111502</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1589.818299731217</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>1585.572580071274</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583397</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.341159094982</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415353</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.130455568489</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.7466171846506</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.36152745083444</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>460.875223886445</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>460.875223886445</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1087.370430316151</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.231555524841</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.4547363200022</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588821</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381029</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.225122976349</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>957.1223243621533</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.244331563676</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.4863278144132</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.7792737761694</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>279.1879988019971</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.2858244923716</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.3843298381825</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>743.5942116061436</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1203.078078787057</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2065.006131170483</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140825</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352346</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2509.875942057718</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2350.634573355714</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2350.634573355714</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2072.201572608819</v>
       </c>
       <c r="V7" t="n">
-        <v>1270.644793662241</v>
+        <v>1785.24606447925</v>
       </c>
       <c r="W7" t="n">
-        <v>1270.644793662241</v>
+        <v>1785.24606447925</v>
       </c>
       <c r="X7" t="n">
-        <v>1270.644793662241</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>1043.225122976349</v>
+        <v>1321.502654597916</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>841.8707619056961</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>807.7686931295234</v>
+        <v>1263.938003889275</v>
       </c>
       <c r="D8" t="n">
-        <v>775.899312344372</v>
+        <v>1232.068623104124</v>
       </c>
       <c r="E8" t="n">
-        <v>347.3176380816403</v>
+        <v>798.2938782624192</v>
       </c>
       <c r="F8" t="n">
-        <v>323.4906125312521</v>
+        <v>370.4264486716269</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1294.102365436318</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1246.909708005164</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>884.2927579389903</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>883.4777073904277</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>868.3756480101424</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>864.1299283501999</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1428.08520850365</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1156.058804089942</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>910.6670494233545</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>910.6670494233545</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2069.742744805087</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1631.60027198851</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1631.60027198851</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.825527146805</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>769.9580975560132</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G11" t="n">
-        <v>368.5602661792771</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43011162249333</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>79.01332224963333</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>913.3636142078113</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1891.153477047024</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1891.153477047024</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>1891.153477047024</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2868.943339886236</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3697.253214719633</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3950.666112481666</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481666</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3950.666112481666</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3950.666112481666</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3950.666112481666</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3728.326356999997</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3323.470902411031</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2904.328438990342</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2496.042315289995</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409262</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775684</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241217</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510754</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.134064167237</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334209</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>105.0769954100909</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>429.6353203763032</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634103</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569395</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025886</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414686</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206893</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1066.94016041414</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>894.3784488973648</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>728.5004560988875</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>558.7424523496247</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>382.035398311381</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>216.4441233372086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143232</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854588</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534199</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.672932152433</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S13" t="n">
-        <v>2536.431563450429</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2290.552117028884</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2290.552117028884</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>2003.596608899315</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1731.570204485606</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1486.178449819019</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1258.758779133127</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5306,22 +5306,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5516,22 +5516,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5540,22 +5540,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5689,34 +5689,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5835,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6464,22 +6464,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157604</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.92946356862</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6540,25 +6540,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1628.781199980813</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886292</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030281</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666415</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412738</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799776</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6856,13 +6856,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>204.9138786708293</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>495.7456864773248</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>930.0289214806456</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6877,10 +6877,10 @@
         <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6892,7 +6892,7 @@
         <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1937.578667826199</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>605.8694973157604</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>1680.92946356862</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M35" t="n">
-        <v>2837.977298779171</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N35" t="n">
-        <v>3963.708282215618</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O35" t="n">
-        <v>4943.887948785924</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886291</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
@@ -7160,7 +7160,7 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7178,22 +7178,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1367.171683086914</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1774.960594197687</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2900.691577634134</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3880.87124420444</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4709.181119037836</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7202,10 +7202,10 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463113</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
@@ -7357,25 +7357,25 @@
         <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7403,40 +7403,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>1689.869226339287</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2815.600209775734</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
         <v>442.520979946312</v>
@@ -7564,28 +7564,28 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7594,25 +7594,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,46 +7652,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>1367.171683086914</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7816,40 +7816,40 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694963</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361806</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,25 +8058,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102861</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,22 +8289,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>414.3932814337355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>632.8234408380864</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>296.9562613211783</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.980543648001</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,25 +8611,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204166</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204168</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>255.9726240020545</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9483,19 +9483,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,7 +10112,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935651</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10188,10 +10188,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>19.7440643176119</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10586,25 +10586,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>411.907991020983</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>524.0123721920322</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,10 +11300,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>996.9910187763885</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>299.3992559358582</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>264.9733623567082</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.63550139270455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>138.8744226386592</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.446659489829699</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.115254653260844e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.345440513412214e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>846156.1548460013</v>
+        <v>693550.7705814717</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>917582.5904090457</v>
+        <v>919721.1144978445</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>917582.5904090457</v>
+        <v>920076.8908205791</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754201.6188353034</v>
+        <v>909096.7662132089</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>909096.7662132091</v>
+        <v>909096.7662132089</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>909096.7662132089</v>
+        <v>909096.7662132088</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>924889.3169934045</v>
+        <v>924426.9682465614</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24706.5884779603</v>
+        <v>20218.19482312119</v>
       </c>
       <c r="C2" t="n">
         <v>26807.36599452043</v>
       </c>
       <c r="D2" t="n">
-        <v>26807.36599452043</v>
+        <v>26807.36599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>21854.48555202851</v>
+        <v>26342.87920686762</v>
       </c>
       <c r="F2" t="n">
         <v>26342.87920686762</v>
       </c>
       <c r="G2" t="n">
-        <v>26342.87920686763</v>
+        <v>26342.87920686762</v>
       </c>
       <c r="H2" t="n">
-        <v>26342.87920686761</v>
+        <v>26342.87920686762</v>
       </c>
       <c r="I2" t="n">
         <v>26342.87920686762</v>
@@ -26344,7 +26344,7 @@
         <v>26807.36599452044</v>
       </c>
       <c r="M2" t="n">
-        <v>26807.36599452044</v>
+        <v>26807.36599452041</v>
       </c>
       <c r="N2" t="n">
         <v>26807.36599452043</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246263</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106382</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880865</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658705</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338241</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143486</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962802</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713868</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151319.1470741827</v>
+        <v>100082.6006667568</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>129714.7067070015</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>11818.05667031436</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26445,19 +26445,19 @@
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
-        <v>19587.56338712591</v>
+        <v>19587.56338712589</v>
       </c>
       <c r="M4" t="n">
-        <v>19587.56338712591</v>
+        <v>29443.15222066924</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066924</v>
+        <v>29443.15222066921</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066924</v>
+        <v>29443.15222066921</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066923</v>
+        <v>29443.15222066922</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295565</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972133</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328228.6473931547</v>
+        <v>-281809.9531991378</v>
       </c>
       <c r="C6" t="n">
-        <v>-207917.6620078129</v>
+        <v>-242379.7553078994</v>
       </c>
       <c r="D6" t="n">
-        <v>-207917.6620078129</v>
+        <v>-180312.3149934364</v>
       </c>
       <c r="E6" t="n">
-        <v>-218223.7841145072</v>
+        <v>-247998.8985298499</v>
       </c>
       <c r="F6" t="n">
-        <v>-148883.2943260046</v>
+        <v>-65643.78930880017</v>
       </c>
       <c r="G6" t="n">
-        <v>-65620.56496941754</v>
+        <v>-65643.78930880017</v>
       </c>
       <c r="H6" t="n">
-        <v>-65620.56496941755</v>
+        <v>-65643.78930880017</v>
       </c>
       <c r="I6" t="n">
-        <v>-65620.56496941754</v>
+        <v>-65643.78930880017</v>
       </c>
       <c r="J6" t="n">
-        <v>-176635.0303144077</v>
+        <v>-176658.2546537904</v>
       </c>
       <c r="K6" t="n">
-        <v>-65620.56496941754</v>
+        <v>-119312.1163721826</v>
       </c>
       <c r="L6" t="n">
-        <v>-84851.92420186404</v>
+        <v>-93632.09789230098</v>
       </c>
       <c r="M6" t="n">
-        <v>-212257.5805271464</v>
+        <v>-215729.1016900905</v>
       </c>
       <c r="N6" t="n">
-        <v>-134954.2016093772</v>
+        <v>-78151.40095223847</v>
       </c>
       <c r="O6" t="n">
         <v>-78151.4009522385</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380864</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204166</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179821</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977054</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643287</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179821</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977054</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273064</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179821</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977054</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643287</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>130.0377414574296</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>240.3209072866734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27546,16 +27546,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>18.26313585188061</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>152.5468074842125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>218.1606778407255</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>69.07893917476899</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>8.97733531643371</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>370.1803477317476</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>111.5410047353455</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28059,16 +28059,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>17.67871368727458</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387485</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,25 +34778,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102861</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,22 +35009,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>414.3932814337355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>632.8234408380864</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>296.9562613211783</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.980543648001</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204166</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204168</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>255.9726240020545</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35884,25 +35884,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165102</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36832,25 +36832,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935651</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36908,10 +36908,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>19.7440643176119</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37230,10 +37230,10 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
@@ -37245,7 +37245,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37470,19 +37470,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>411.907991020983</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>524.0123721920322</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37938,25 +37938,25 @@
         <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348443</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>996.9910187763885</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38184,10 +38184,10 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343491</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
